--- a/data/trans_orig/Predimed-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Dificultad-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>5.421380624834432</v>
+        <v>5.421380624834433</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>5.73856649439502</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.194406630673825</v>
+        <v>5.206395662165809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.53063435032228</v>
+        <v>5.561228865439422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.453192551382031</v>
+        <v>5.47195316927949</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.643088923438837</v>
+        <v>5.657976758587949</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.904540579783821</v>
+        <v>5.909656540660594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.73781662682407</v>
+        <v>5.745906023397714</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>5.781879537487002</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.839836987520769</v>
+        <v>5.83983698752077</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5.813200536452928</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.593251845629147</v>
+        <v>5.610749078535495</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.717755409084532</v>
+        <v>5.719417406738247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.711725757075095</v>
+        <v>5.690122469951406</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.963595463368153</v>
+        <v>5.954726564940588</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.960738152148964</v>
+        <v>5.969275513106537</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.917059065218337</v>
+        <v>5.917517255733824</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.302878914483468</v>
+        <v>6.302878914483467</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.490480622406749</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.397223362509912</v>
+        <v>6.397223362509911</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.1431883758771</v>
+        <v>6.149482440695563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.350760463476384</v>
+        <v>6.367396149666842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.292347227664577</v>
+        <v>6.291629667714744</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.457178769029099</v>
+        <v>6.462442566483896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.615384943876905</v>
+        <v>6.634672002622975</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.492535857079257</v>
+        <v>6.492231628691075</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>7.441142532220352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.427840181215085</v>
+        <v>7.427840181215084</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.275342111873367</v>
+        <v>7.27149303890061</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.312953314193677</v>
+        <v>7.302834231219105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.329525512112326</v>
+        <v>7.325544702805783</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.56081689021176</v>
+        <v>7.570588755704135</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.571497867696596</v>
+        <v>7.561473749044144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.529995774950526</v>
+        <v>7.526798793020096</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.35828474843272</v>
+        <v>6.358284748432721</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.408620765059426</v>
+        <v>6.408620765059427</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>6.384316766154202</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.268182765025511</v>
+        <v>6.264668905615026</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.329940659479687</v>
+        <v>6.33922998545603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.329503579207882</v>
+        <v>6.331630192611303</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.450569326878499</v>
+        <v>6.460968754064704</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.478596832248511</v>
+        <v>6.477037754072971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.444396371371813</v>
+        <v>6.4535899612474</v>
       </c>
     </row>
     <row r="19">
